--- a/history/25_35/summary.xlsx
+++ b/history/25_35/summary.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\25_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FA78B6-62BC-4847-A01B-E6BE6BE7CF7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1E48FB-5468-46A2-87A5-28B662C71E0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -121,6 +123,9 @@
     <t>between 
 0,0-0,5%</t>
   </si>
+  <si>
+    <t>in</t>
+  </si>
 </sst>
 </file>
 
@@ -357,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,6 +430,18 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,23 +454,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -844,7 +857,7 @@
         </row>
         <row r="2">
           <cell r="B2">
-            <v>44267</v>
+            <v>44270</v>
           </cell>
           <cell r="E2">
             <v>113</v>
@@ -880,6 +893,65 @@
         <row r="6">
           <cell r="H6">
             <v>29</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="H1">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>44271</v>
+          </cell>
+          <cell r="E2">
+            <v>129</v>
+          </cell>
+          <cell r="H2">
+            <v>8</v>
+          </cell>
+          <cell r="L2">
+            <v>3990.85</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="H3">
+            <v>17</v>
+          </cell>
+          <cell r="L3">
+            <v>4040.4929945553527</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>20</v>
+          </cell>
+          <cell r="L4">
+            <v>1.2286370653840417E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>35</v>
           </cell>
         </row>
       </sheetData>
@@ -1151,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T10"/>
+  <dimension ref="B2:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,20 +1239,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="2:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1189,30 +1261,30 @@
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="28" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="29">
+      <c r="M3" s="32"/>
+      <c r="N3" s="23">
         <v>0</v>
       </c>
-      <c r="O3" s="30"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1665,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" ref="M9:O10" si="17">L9/C9</f>
+        <f t="shared" ref="M9:M10" si="17">L9/C9</f>
         <v>8.0645161290322578E-2</v>
       </c>
       <c r="N9" s="10">
@@ -1700,7 +1772,7 @@
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f>[7]Sheet1!$B$2</f>
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="C10" s="3">
         <f>[7]Sheet1!$E$2</f>
@@ -1773,6 +1845,84 @@
       <c r="T10" s="16">
         <f t="shared" ref="T10" si="21">(D10+F10+H10+J10)/C10</f>
         <v>0.58407079646017701</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <f>[8]Sheet1!$B$2</f>
+        <v>44271</v>
+      </c>
+      <c r="C11" s="3">
+        <f>[8]Sheet1!$E$2</f>
+        <v>129</v>
+      </c>
+      <c r="D11" s="17">
+        <f>[8]Sheet1!$H$1</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" ref="E11" si="22">D11/C11</f>
+        <v>0.15503875968992248</v>
+      </c>
+      <c r="F11" s="19">
+        <f>[8]Sheet1!$H$2</f>
+        <v>8</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" ref="G11" si="23">F11/C11</f>
+        <v>6.2015503875968991E-2</v>
+      </c>
+      <c r="H11" s="19">
+        <f>[8]Sheet1!$H$3</f>
+        <v>17</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" ref="I11" si="24">H11/C11</f>
+        <v>0.13178294573643412</v>
+      </c>
+      <c r="J11" s="19">
+        <f>[8]Sheet1!$H$4</f>
+        <v>20</v>
+      </c>
+      <c r="K11" s="22">
+        <f t="shared" ref="K11" si="25">J11/C11</f>
+        <v>0.15503875968992248</v>
+      </c>
+      <c r="L11" s="10">
+        <f>[8]Sheet1!$H$5</f>
+        <v>29</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" ref="M11" si="26">L11/C11</f>
+        <v>0.22480620155038761</v>
+      </c>
+      <c r="N11" s="10">
+        <f>[8]Sheet1!$H$6</f>
+        <v>35</v>
+      </c>
+      <c r="O11" s="7">
+        <f>N11/C11</f>
+        <v>0.27131782945736432</v>
+      </c>
+      <c r="P11" s="2">
+        <f>[8]Sheet1!$L$2</f>
+        <v>3990.85</v>
+      </c>
+      <c r="Q11" s="33">
+        <f>[8]Sheet1!$L$3</f>
+        <v>4040.4929945553527</v>
+      </c>
+      <c r="R11" s="14">
+        <f>[8]Sheet1!$L$4</f>
+        <v>1.2286370653840417E-2</v>
+      </c>
+      <c r="S11" s="16">
+        <f t="shared" ref="S11" si="27">(D11+F11+H11)/C11</f>
+        <v>0.34883720930232559</v>
+      </c>
+      <c r="T11" s="16">
+        <f t="shared" ref="T11" si="28">(D11+F11+H11+J11)/C11</f>
+        <v>0.50387596899224807</v>
       </c>
     </row>
   </sheetData>
@@ -1787,4 +1937,389 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72AF097-D87E-4CC5-98A5-17736E3C90F5}">
+  <dimension ref="C1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R9:S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1">
+        <v>100000</v>
+      </c>
+      <c r="E1" s="34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>D1</f>
+        <v>100000</v>
+      </c>
+      <c r="E3" s="34">
+        <f>$E$1</f>
+        <v>0.01</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3+D3</f>
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>F3</f>
+        <v>101000</v>
+      </c>
+      <c r="E4" s="34">
+        <f t="shared" ref="E4:E22" si="0">$E$1</f>
+        <v>0.01</v>
+      </c>
+      <c r="F4">
+        <f>D4*E4+D4</f>
+        <v>102010</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D22" si="1">F4</f>
+        <v>102010</v>
+      </c>
+      <c r="E5" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F22" si="2">D5*E5+D5</f>
+        <v>103030.1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>103030.1</v>
+      </c>
+      <c r="E6" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>104060.40100000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>104060.40100000001</v>
+      </c>
+      <c r="E7" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>105101.00501000001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>105101.00501000001</v>
+      </c>
+      <c r="E8" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>106152.01506010001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>106152.01506010001</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>107213.53521070101</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>107213.53521070101</v>
+      </c>
+      <c r="E10" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>108285.67056280802</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>108285.67056280802</v>
+      </c>
+      <c r="E11" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>109368.5272684361</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>109368.5272684361</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>110462.21254112046</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>110462.21254112046</v>
+      </c>
+      <c r="E13" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>111566.83466653166</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>111566.83466653166</v>
+      </c>
+      <c r="E14" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>112682.50301319698</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>112682.50301319698</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>113809.32804332895</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>113809.32804332895</v>
+      </c>
+      <c r="E16" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>114947.42132376223</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>114947.42132376223</v>
+      </c>
+      <c r="E17" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>116096.89553699986</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>116096.89553699986</v>
+      </c>
+      <c r="E18" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>117257.86449236986</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>117257.86449236986</v>
+      </c>
+      <c r="E19" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>118430.44313729357</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>118430.44313729357</v>
+      </c>
+      <c r="E20" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>119614.7475686665</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>119614.7475686665</v>
+      </c>
+      <c r="E21" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>120810.89504435316</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>120810.89504435316</v>
+      </c>
+      <c r="E22" s="34">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>122019.0039947967</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="35">
+        <f>(F22/D1)-100%</f>
+        <v>0.22019003994796704</v>
+      </c>
+      <c r="F24">
+        <f>F22-D1</f>
+        <v>22019.003994796702</v>
+      </c>
+      <c r="H24">
+        <f>E24*12</f>
+        <v>2.6422804793756045</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/history/25_35/summary.xlsx
+++ b/history/25_35/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\25_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1E48FB-5468-46A2-87A5-28B662C71E0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17177596-9BEE-4950-A1C5-49A497E07798}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -430,36 +431,6 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,6 +438,36 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -952,6 +953,62 @@
         <row r="6">
           <cell r="H6">
             <v>35</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="H1">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>44272</v>
+          </cell>
+          <cell r="E2">
+            <v>93</v>
+          </cell>
+          <cell r="H2">
+            <v>12</v>
+          </cell>
+          <cell r="L2">
+            <v>2911.5699999999993</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="H3">
+            <v>13</v>
+          </cell>
+          <cell r="L3">
+            <v>2965.1117095149839</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>7</v>
           </cell>
         </row>
       </sheetData>
@@ -1223,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T11"/>
+  <dimension ref="B2:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,20 +1296,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1261,30 +1318,30 @@
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="23">
+      <c r="M3" s="36"/>
+      <c r="N3" s="27">
         <v>0</v>
       </c>
-      <c r="O3" s="24"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1908,7 +1965,7 @@
         <f>[8]Sheet1!$L$2</f>
         <v>3990.85</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="23">
         <f>[8]Sheet1!$L$3</f>
         <v>4040.4929945553527</v>
       </c>
@@ -1923,6 +1980,84 @@
       <c r="T11" s="16">
         <f t="shared" ref="T11" si="28">(D11+F11+H11+J11)/C11</f>
         <v>0.50387596899224807</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f>[9]Sheet1!$B$2</f>
+        <v>44272</v>
+      </c>
+      <c r="C12" s="3">
+        <f>[9]Sheet1!$E$2</f>
+        <v>93</v>
+      </c>
+      <c r="D12" s="17">
+        <f>[9]Sheet1!$H$1</f>
+        <v>29</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" ref="E12" si="29">D12/C12</f>
+        <v>0.31182795698924731</v>
+      </c>
+      <c r="F12" s="19">
+        <f>[9]Sheet1!$H$2</f>
+        <v>12</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" ref="G12" si="30">F12/C12</f>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="H12" s="19">
+        <f>[9]Sheet1!$H$3</f>
+        <v>13</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" ref="I12" si="31">H12/C12</f>
+        <v>0.13978494623655913</v>
+      </c>
+      <c r="J12" s="19">
+        <f>[9]Sheet1!$H$4</f>
+        <v>19</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" ref="K12" si="32">J12/C12</f>
+        <v>0.20430107526881722</v>
+      </c>
+      <c r="L12" s="10">
+        <f>[9]Sheet1!$H$5</f>
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" ref="M12" si="33">L12/C12</f>
+        <v>0.13978494623655913</v>
+      </c>
+      <c r="N12" s="10">
+        <f>[9]Sheet1!$H$6</f>
+        <v>7</v>
+      </c>
+      <c r="O12" s="7">
+        <f>N12/C12</f>
+        <v>7.5268817204301078E-2</v>
+      </c>
+      <c r="P12" s="2">
+        <f>[9]Sheet1!$L$2</f>
+        <v>2911.5699999999993</v>
+      </c>
+      <c r="Q12" s="23">
+        <f>[9]Sheet1!$L$3</f>
+        <v>2965.1117095149839</v>
+      </c>
+      <c r="R12" s="14">
+        <f>[8]Sheet1!$L$4</f>
+        <v>1.2286370653840417E-2</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" ref="S12" si="34">(D12+F12+H12)/C12</f>
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" ref="T12" si="35">(D12+F12+H12+J12)/C12</f>
+        <v>0.78494623655913975</v>
       </c>
     </row>
   </sheetData>
@@ -1955,13 +2090,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D1">
         <v>100000</v>
       </c>
-      <c r="E1" s="34">
+      <c r="E1" s="24">
         <v>0.01</v>
       </c>
     </row>
@@ -1973,7 +2108,7 @@
         <f>D1</f>
         <v>100000</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="24">
         <f>$E$1</f>
         <v>0.01</v>
       </c>
@@ -1990,7 +2125,7 @@
         <f>F3</f>
         <v>101000</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="24">
         <f t="shared" ref="E4:E22" si="0">$E$1</f>
         <v>0.01</v>
       </c>
@@ -2007,7 +2142,7 @@
         <f t="shared" ref="D5:D22" si="1">F4</f>
         <v>102010</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2024,7 +2159,7 @@
         <f t="shared" si="1"/>
         <v>103030.1</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2041,7 +2176,7 @@
         <f t="shared" si="1"/>
         <v>104060.40100000001</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2058,7 +2193,7 @@
         <f t="shared" si="1"/>
         <v>105101.00501000001</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2075,7 +2210,7 @@
         <f t="shared" si="1"/>
         <v>106152.01506010001</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2092,7 +2227,7 @@
         <f t="shared" si="1"/>
         <v>107213.53521070101</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2109,7 +2244,7 @@
         <f t="shared" si="1"/>
         <v>108285.67056280802</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2126,7 +2261,7 @@
         <f t="shared" si="1"/>
         <v>109368.5272684361</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2143,7 +2278,7 @@
         <f t="shared" si="1"/>
         <v>110462.21254112046</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2160,7 +2295,7 @@
         <f t="shared" si="1"/>
         <v>111566.83466653166</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2177,7 +2312,7 @@
         <f t="shared" si="1"/>
         <v>112682.50301319698</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2194,7 +2329,7 @@
         <f t="shared" si="1"/>
         <v>113809.32804332895</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2211,7 +2346,7 @@
         <f t="shared" si="1"/>
         <v>114947.42132376223</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2228,7 +2363,7 @@
         <f t="shared" si="1"/>
         <v>116096.89553699986</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2245,7 +2380,7 @@
         <f t="shared" si="1"/>
         <v>117257.86449236986</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2262,7 +2397,7 @@
         <f t="shared" si="1"/>
         <v>118430.44313729357</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2279,7 +2414,7 @@
         <f t="shared" si="1"/>
         <v>119614.7475686665</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2296,7 +2431,7 @@
         <f t="shared" si="1"/>
         <v>120810.89504435316</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="24">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2306,7 +2441,7 @@
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="35">
+      <c r="E24" s="25">
         <f>(F22/D1)-100%</f>
         <v>0.22019003994796704</v>
       </c>

--- a/history/25_35/summary.xlsx
+++ b/history/25_35/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\25_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17177596-9BEE-4950-A1C5-49A497E07798}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427821CD-2D07-4D29-B1F1-11740B1888B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -548,6 +549,65 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="H1">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>44273</v>
+          </cell>
+          <cell r="E2">
+            <v>78</v>
+          </cell>
+          <cell r="H2">
+            <v>8</v>
+          </cell>
+          <cell r="L2">
+            <v>2469.3700000000003</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="H3">
+            <v>11</v>
+          </cell>
+          <cell r="L3">
+            <v>2518.0894385126339</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>12</v>
+          </cell>
+          <cell r="L4">
+            <v>1.9347779220030725E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -999,6 +1059,9 @@
         <row r="4">
           <cell r="H4">
             <v>19</v>
+          </cell>
+          <cell r="L4">
+            <v>1.8057231821374642E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -1280,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T12"/>
+  <dimension ref="B2:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,8 +2111,8 @@
         <v>2965.1117095149839</v>
       </c>
       <c r="R12" s="14">
-        <f>[8]Sheet1!$L$4</f>
-        <v>1.2286370653840417E-2</v>
+        <f>[9]Sheet1!$L$4</f>
+        <v>1.8057231821374642E-2</v>
       </c>
       <c r="S12" s="16">
         <f t="shared" ref="S12" si="34">(D12+F12+H12)/C12</f>
@@ -2058,6 +2121,84 @@
       <c r="T12" s="16">
         <f t="shared" ref="T12" si="35">(D12+F12+H12+J12)/C12</f>
         <v>0.78494623655913975</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f>[10]Sheet1!$B$2</f>
+        <v>44273</v>
+      </c>
+      <c r="C13" s="3">
+        <f>[10]Sheet1!$E$2</f>
+        <v>78</v>
+      </c>
+      <c r="D13" s="17">
+        <f>[10]Sheet1!$H$1</f>
+        <v>33</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" ref="E13" si="36">D13/C13</f>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="F13" s="19">
+        <f>[10]Sheet1!$H$2</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" ref="G13" si="37">F13/C13</f>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="H13" s="19">
+        <f>[10]Sheet1!$H$3</f>
+        <v>11</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" ref="I13" si="38">H13/C13</f>
+        <v>0.14102564102564102</v>
+      </c>
+      <c r="J13" s="19">
+        <f>[10]Sheet1!$H$4</f>
+        <v>12</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" ref="K13" si="39">J13/C13</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="L13" s="10">
+        <f>[10]Sheet1!$H$5</f>
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" ref="M13" si="40">L13/C13</f>
+        <v>0.14102564102564102</v>
+      </c>
+      <c r="N13" s="10">
+        <f>[10]Sheet1!$H$6</f>
+        <v>3</v>
+      </c>
+      <c r="O13" s="7">
+        <f>N13/C13</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="P13" s="2">
+        <f>[10]Sheet1!$L$2</f>
+        <v>2469.3700000000003</v>
+      </c>
+      <c r="Q13" s="23">
+        <f>[10]Sheet1!$L$3</f>
+        <v>2518.0894385126339</v>
+      </c>
+      <c r="R13" s="14">
+        <f>[10]Sheet1!$L$4</f>
+        <v>1.9347779220030725E-2</v>
+      </c>
+      <c r="S13" s="16">
+        <f t="shared" ref="S13" si="41">(D13+F13+H13)/C13</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" ref="T13" si="42">(D13+F13+H13+J13)/C13</f>
+        <v>0.82051282051282048</v>
       </c>
     </row>
   </sheetData>
